--- a/biology/Origine et évolution du vivant/L'Odyssée_sous-marine_de_l'équipe_Cousteau/L'Odyssée_sous-marine_de_l'équipe_Cousteau.xlsx
+++ b/biology/Origine et évolution du vivant/L'Odyssée_sous-marine_de_l'équipe_Cousteau/L'Odyssée_sous-marine_de_l'équipe_Cousteau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Odyss%C3%A9e_sous-marine_de_l%27%C3%A9quipe_Cousteau</t>
+          <t>L'Odyssée_sous-marine_de_l'équipe_Cousteau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L’Odyssée sous-marine de l'équipe Cousteau (en anglais The Undersea World of Jacques Cousteau[1]) est une émission de télévision consacrée à la biodiversité marine, lancée par le plongeur et explorateur marin Jacques-Yves Cousteau, avec de nombreux chercheurs de différentes disciplines invités à bord de la Calypso, selon des thèmes abordés. Les films tournés avant 1968 y ont été ultérieurement intégrés, mais la série pour la télévision, tournée initialement avec les fonds de Ted Turner, fut tournée de 1966 à 1976, et les premiers épisodes furent diffusés à partir de 1968 :
-La narration en langue anglaise est réalisée par Richard Johnson (version de la BBC) et Rod Serling (version des États-Unis). Le film montre aussi la famille Cousteau dont les enfants Jean-Michel et Philippe-Pierre, avec son petit-fils Fabian Cousteau[2] :
+L’Odyssée sous-marine de l'équipe Cousteau (en anglais The Undersea World of Jacques Cousteau) est une émission de télévision consacrée à la biodiversité marine, lancée par le plongeur et explorateur marin Jacques-Yves Cousteau, avec de nombreux chercheurs de différentes disciplines invités à bord de la Calypso, selon des thèmes abordés. Les films tournés avant 1968 y ont été ultérieurement intégrés, mais la série pour la télévision, tournée initialement avec les fonds de Ted Turner, fut tournée de 1966 à 1976, et les premiers épisodes furent diffusés à partir de 1968 :
+La narration en langue anglaise est réalisée par Richard Johnson (version de la BBC) et Rod Serling (version des États-Unis). Le film montre aussi la famille Cousteau dont les enfants Jean-Michel et Philippe-Pierre, avec son petit-fils Fabian Cousteau :
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Odyss%C3%A9e_sous-marine_de_l%27%C3%A9quipe_Cousteau</t>
+          <t>L'Odyssée_sous-marine_de_l'équipe_Cousteau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Saison 1973-74</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>South to Fire and Ice
 The Flight of the Penguins
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Odyss%C3%A9e_sous-marine_de_l%27%C3%A9quipe_Cousteau</t>
+          <t>L'Odyssée_sous-marine_de_l'équipe_Cousteau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Saison 1974-75</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Life at the End of the World
 Beavers of the North Country
